--- a/_img/spring-loaded.xlsx
+++ b/_img/spring-loaded.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>无意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⅹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +200,15 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -351,71 +372,74 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,128 +735,132 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -841,68 +869,78 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_img/spring-loaded.xlsx
+++ b/_img/spring-loaded.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,18 +72,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增注解类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已有注解类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增普通类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> @Bean@Component@RequestMapping等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +105,18 @@
   </si>
   <si>
     <t>注解方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Bean@Component@RequestMapping@Service等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建普通类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建注解类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,6 +424,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -431,15 +440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,26 +733,30 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="21"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="19"/>
       <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
@@ -763,18 +767,24 @@
         <v>5</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>10</v>
@@ -788,19 +798,25 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>9</v>
@@ -814,36 +830,48 @@
       <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>22</v>
+      <c r="H5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>
@@ -857,90 +885,91 @@
       <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="C11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="C12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
